--- a/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - player.xlsx
+++ b/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - player.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BB7758-5C19-408F-9892-17FB197F7B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="20">
   <si>
     <t>B</t>
   </si>
@@ -53,12 +54,36 @@
   <si>
     <t>Red</t>
   </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Violet (Purple)</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,7 +105,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,6 +148,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -151,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -175,6 +218,18 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -188,6 +243,14 @@
       <color rgb="FFFF66CC"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -208,7 +271,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1033" name="Picture 9"/>
+        <xdr:cNvPr id="1033" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -248,7 +317,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1035" name="Picture 11"/>
+        <xdr:cNvPr id="1035" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -288,7 +363,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1037" name="Picture 13"/>
+        <xdr:cNvPr id="1037" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -328,7 +409,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1039" name="Picture 15"/>
+        <xdr:cNvPr id="1039" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -368,7 +455,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1041" name="Picture 17"/>
+        <xdr:cNvPr id="1041" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -408,7 +501,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1043" name="Picture 19"/>
+        <xdr:cNvPr id="1043" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -448,7 +547,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1045" name="Picture 21"/>
+        <xdr:cNvPr id="1045" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -488,7 +593,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1047" name="Picture 23"/>
+        <xdr:cNvPr id="1047" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -528,7 +639,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1049" name="Picture 25"/>
+        <xdr:cNvPr id="1049" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -568,7 +685,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1051" name="Picture 27"/>
+        <xdr:cNvPr id="1051" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -608,7 +731,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1053" name="Picture 29"/>
+        <xdr:cNvPr id="1053" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -648,7 +777,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1055" name="Picture 31"/>
+        <xdr:cNvPr id="1055" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -677,9 +812,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -717,7 +852,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -751,6 +886,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -785,9 +921,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -960,19 +1097,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="BX23" sqref="BX23"/>
+    <sheetView tabSelected="1" topLeftCell="W10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="CC22" sqref="CC22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="89" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -1079,7 +1216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:79">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1201,7 +1338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:79">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1323,7 +1460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:79">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1445,7 +1582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:79">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1567,7 +1704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:79">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1689,7 +1826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:79">
+    <row r="7" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1811,7 +1948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:79">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1933,7 +2070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:79">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2055,7 +2192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:79">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2177,7 +2314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:79">
+    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2299,7 +2436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:79">
+    <row r="12" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2421,7 +2558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:79">
+    <row r="13" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2543,7 +2680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:79">
+    <row r="16" spans="1:79" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>0</v>
       </c>
@@ -2629,7 +2766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:76">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -2733,7 +2870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:76">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2837,7 +2974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:76">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2941,7 +3078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:76">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3045,7 +3182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:76">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -3149,7 +3286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:76">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -3253,7 +3390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:76">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -3350,8 +3487,14 @@
       <c r="BJ23" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="BV23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="BX23" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="24" spans="1:76">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7</v>
       </c>
@@ -3448,8 +3591,14 @@
       <c r="BJ24" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="BV24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BX24" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="25" spans="1:76">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8</v>
       </c>
@@ -3546,8 +3695,14 @@
       <c r="BJ25" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="BV25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="BX25" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="26" spans="1:76">
+    <row r="26" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
@@ -3644,8 +3799,14 @@
       <c r="BJ26" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="BV26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="BX26" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="27" spans="1:76">
+    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10</v>
       </c>
@@ -3743,7 +3904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:76">
+    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>11</v>
       </c>
@@ -3841,7 +4002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:76">
+    <row r="31" spans="1:76" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>0</v>
       </c>
@@ -3906,7 +4067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:76">
+    <row r="32" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -3985,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:45">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -4064,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:45">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -4143,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:45">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -4222,7 +4383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:45">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -4301,7 +4462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:45">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
@@ -4380,7 +4541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:45">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6</v>
       </c>
@@ -4459,7 +4620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:45">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7</v>
       </c>
@@ -4538,7 +4699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:45">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>8</v>
       </c>
@@ -4617,7 +4778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:45">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9</v>
       </c>
@@ -4696,7 +4857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:45">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10</v>
       </c>
@@ -4791,7 +4952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:45">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>11</v>
       </c>
@@ -4873,24 +5034,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - player.xlsx
+++ b/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - player.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BB7758-5C19-408F-9892-17FB197F7B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="32">
   <si>
     <t>B</t>
   </si>
@@ -78,12 +77,48 @@
   <si>
     <t>Green</t>
   </si>
+  <si>
+    <t>player1</t>
+  </si>
+  <si>
+    <t>player2</t>
+  </si>
+  <si>
+    <t>player3</t>
+  </si>
+  <si>
+    <t>player4</t>
+  </si>
+  <si>
+    <t>player5</t>
+  </si>
+  <si>
+    <t>player6</t>
+  </si>
+  <si>
+    <t>player7</t>
+  </si>
+  <si>
+    <t>player8</t>
+  </si>
+  <si>
+    <t>player9</t>
+  </si>
+  <si>
+    <t>player10</t>
+  </si>
+  <si>
+    <t>player11</t>
+  </si>
+  <si>
+    <t>player12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,7 +309,7 @@
         <xdr:cNvPr id="1033" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -320,7 +355,7 @@
         <xdr:cNvPr id="1035" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -366,7 +401,7 @@
         <xdr:cNvPr id="1037" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -412,7 +447,7 @@
         <xdr:cNvPr id="1039" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -458,7 +493,7 @@
         <xdr:cNvPr id="1041" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -504,7 +539,7 @@
         <xdr:cNvPr id="1043" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -550,7 +585,7 @@
         <xdr:cNvPr id="1045" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -596,7 +631,7 @@
         <xdr:cNvPr id="1047" name="Picture 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -642,7 +677,7 @@
         <xdr:cNvPr id="1049" name="Picture 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -688,7 +723,7 @@
         <xdr:cNvPr id="1051" name="Picture 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,7 +769,7 @@
         <xdr:cNvPr id="1053" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -780,7 +815,7 @@
         <xdr:cNvPr id="1055" name="Picture 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -812,9 +847,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -852,7 +887,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -886,7 +921,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -921,10 +955,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1097,19 +1130,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CA43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="CC22" sqref="CC22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AM32" sqref="AM32:AS43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="89" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:82">
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -1216,7 +1249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:82">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1338,7 +1371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:82">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1460,7 +1493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:82">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1582,7 +1615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:82">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1704,7 +1737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:82">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1826,7 +1859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:82">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1948,7 +1981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:82">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2070,7 +2103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:82">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2192,7 +2225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:82">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2314,7 +2347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:82">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2436,7 +2469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:82">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2558,7 +2591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:82">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2680,7 +2713,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:82">
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>23</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:82">
       <c r="B16" s="2">
         <v>0</v>
       </c>
@@ -2766,7 +2816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:76">
       <c r="A17">
         <v>0</v>
       </c>
@@ -2870,7 +2920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:76">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2974,7 +3024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:76">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3078,7 +3128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:76">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3182,7 +3232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:76">
       <c r="A21">
         <v>4</v>
       </c>
@@ -3286,7 +3336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:76">
       <c r="A22">
         <v>5</v>
       </c>
@@ -3390,7 +3440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:76">
       <c r="A23">
         <v>6</v>
       </c>
@@ -3494,7 +3544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:76">
       <c r="A24">
         <v>7</v>
       </c>
@@ -3598,7 +3648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:76">
       <c r="A25">
         <v>8</v>
       </c>
@@ -3702,7 +3752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:76">
       <c r="A26">
         <v>9</v>
       </c>
@@ -3806,7 +3856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:76">
       <c r="A27">
         <v>10</v>
       </c>
@@ -3904,7 +3954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:76">
       <c r="A28">
         <v>11</v>
       </c>
@@ -4002,7 +4052,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:76">
+      <c r="K29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>27</v>
+      </c>
+      <c r="BM29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:76">
       <c r="B31" s="2">
         <v>0</v>
       </c>
@@ -4067,7 +4131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:76">
       <c r="A32">
         <v>0</v>
       </c>
@@ -4146,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47">
       <c r="A33">
         <v>1</v>
       </c>
@@ -4225,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47">
       <c r="A34">
         <v>2</v>
       </c>
@@ -4304,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47">
       <c r="A35">
         <v>3</v>
       </c>
@@ -4383,7 +4447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47">
       <c r="A36">
         <v>4</v>
       </c>
@@ -4462,7 +4526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47">
       <c r="A37">
         <v>5</v>
       </c>
@@ -4541,7 +4605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47">
       <c r="A38">
         <v>6</v>
       </c>
@@ -4620,7 +4684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47">
       <c r="A39">
         <v>7</v>
       </c>
@@ -4699,7 +4763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47">
       <c r="A40">
         <v>8</v>
       </c>
@@ -4778,7 +4842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47">
       <c r="A41">
         <v>9</v>
       </c>
@@ -4857,7 +4921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47">
       <c r="A42">
         <v>10</v>
       </c>
@@ -4952,7 +5016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47">
       <c r="A43">
         <v>11</v>
       </c>
@@ -5024,6 +5088,17 @@
       </c>
       <c r="AS43" s="5" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:47">
+      <c r="K44" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -5034,24 +5109,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
